--- a/docs/兰达尔第一季.xlsx
+++ b/docs/兰达尔第一季.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91DC76DA-0784-45A2-A895-419F649106DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C48E34FC-91E3-4BD9-80DB-46FD2E502DA1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="法师" sheetId="8" r:id="rId1"/>
+    <sheet name="道士" sheetId="10" r:id="rId2"/>
+    <sheet name="问题" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -19,34 +21,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>作者</author>
-  </authors>
-  <commentList>
-    <comment ref="A40" authorId="0" shapeId="0" xr:uid="{0E2C4DE4-D31D-4F4C-97F7-CD89930B9F94}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">作者:
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="87">
   <si>
     <t>技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +106,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冰霜雪雨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>流星火雨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,14 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>九天神雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神之禁咒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>惊雷爆-地狱雷光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,10 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>飞龙焰-大火球[改]-双龙破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>引雷术-雷电术[改]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,22 +218,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>闪电身法-移形换位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能列表有问题</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>等级 - cd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试召唤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰掌-大火球[改]-双龙破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电步法-移形换位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜群雨-冰霜雪雨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九天神雷-群体雷电术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神之禁咒-圣言术-惊雷爆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前提</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>做怪物系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞符术-灵魂火符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥思术-精神力战法-回蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回春术-治愈术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追魂符-裂神符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>遁甲符-神圣战甲术-幽灵盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生死蛊-火焰冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>噬血蛊-噬血术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复苏咒-群体治疗术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飓风咒-飓风破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诅咒蛊-诅咒术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净化咒-解毒术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无极咒-无极真气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神兽决-召唤神兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>骷髅决-召唤骷髅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月灵决-召唤月灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1h</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>60s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>气功决-气功波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缚地符-困魔咒-群体伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎啸决-普通技能+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通天符-死亡之眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复生蛊-复活术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准确5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回蓝3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八卦咒-普通技能+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巫毒蛊-群体施毒术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵隐符-集体隐身符</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -281,7 +373,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -381,11 +473,19 @@
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -414,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -483,6 +583,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -764,12 +885,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C800E0-CC21-493B-A257-1D72EC9DCAA4}">
-  <dimension ref="A1:K42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74C800E0-CC21-493B-A257-1D72EC9DCAA4}">
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -785,7 +906,7 @@
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="29.25" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:10" ht="29.25" x14ac:dyDescent="0.5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -814,11 +935,11 @@
         <v>2</v>
       </c>
       <c r="J1" s="23" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="25" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="7">
@@ -849,8 +970,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="25"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
       <c r="B3" s="7">
         <v>1</v>
       </c>
@@ -879,8 +1000,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
       <c r="B4" s="7">
         <v>2</v>
       </c>
@@ -909,8 +1030,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
       <c r="B5" s="7">
         <v>3</v>
       </c>
@@ -939,9 +1060,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>41</v>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="7">
         <v>0</v>
@@ -971,8 +1092,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
       <c r="B7" s="7">
         <v>1</v>
       </c>
@@ -1001,13 +1122,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
       <c r="B8" s="7">
         <v>2</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>19</v>
@@ -1031,13 +1152,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
       <c r="B9" s="7">
         <v>3</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>19</v>
@@ -1061,9 +1182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
-        <v>40</v>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>37</v>
       </c>
       <c r="B10" s="7">
         <v>0</v>
@@ -1093,8 +1214,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
       <c r="B11" s="7">
         <v>1</v>
       </c>
@@ -1123,16 +1244,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
       <c r="B12" s="7">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -1153,16 +1274,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
       <c r="B13" s="7">
         <v>3</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -1183,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="8"/>
       <c r="C14" s="11"/>
@@ -1194,9 +1315,9 @@
       <c r="H14" s="17"/>
       <c r="I14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7">
         <v>3</v>
@@ -1225,13 +1346,10 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="K15" s="1">
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B16" s="7">
         <v>3</v>
@@ -1261,9 +1379,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B17" s="7">
         <v>3</v>
@@ -1293,9 +1411,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7">
         <v>3</v>
@@ -1325,7 +1443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="8"/>
       <c r="C19" s="11"/>
@@ -1336,15 +1454,15 @@
       <c r="H19" s="17"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B20" s="7">
         <v>3</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>19</v>
@@ -1367,13 +1485,10 @@
       <c r="J20" s="1">
         <v>2</v>
       </c>
-      <c r="K20" s="1">
-        <v>-300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B21" s="7">
         <v>3</v>
@@ -1403,18 +1518,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B22" s="7">
         <v>3</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E22" s="13">
         <v>6</v>
@@ -1435,9 +1550,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B23" s="7">
         <v>3</v>
@@ -1467,7 +1582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="B24" s="8"/>
       <c r="C24" s="11"/>
@@ -1478,15 +1593,15 @@
       <c r="H24" s="17"/>
       <c r="I24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B25" s="7">
         <v>3</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25" s="10" t="s">
         <v>12</v>
@@ -1509,22 +1624,19 @@
       <c r="J25" s="1">
         <v>3</v>
       </c>
-      <c r="K25" s="1">
-        <v>-500</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" s="7">
         <v>3</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E26" s="13">
         <v>12</v>
@@ -1545,18 +1657,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B27" s="7">
         <v>3</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E27" s="13">
         <v>11</v>
@@ -1577,18 +1689,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B28" s="7">
         <v>3</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E28" s="13">
         <v>0</v>
@@ -1609,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="8"/>
       <c r="C29" s="11"/>
@@ -1620,18 +1732,18 @@
       <c r="H29" s="17"/>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="24" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B30" s="7">
         <v>3</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E30" s="13">
         <v>0</v>
@@ -1649,21 +1761,18 @@
         <v>40</v>
       </c>
       <c r="J30" s="1">
-        <v>8</v>
-      </c>
-      <c r="K30" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B31" s="7">
         <v>3</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D31" s="10" t="s">
         <v>12</v>
@@ -1684,21 +1793,21 @@
         <v>40</v>
       </c>
       <c r="J31" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B32" s="7">
         <v>3</v>
       </c>
       <c r="C32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="E32" s="13">
         <v>0</v>
@@ -1716,12 +1825,12 @@
         <v>40</v>
       </c>
       <c r="J32" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B33" s="7">
         <v>3</v>
@@ -1748,10 +1857,10 @@
         <v>40</v>
       </c>
       <c r="J33" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="8"/>
       <c r="C34" s="11"/>
@@ -1762,18 +1871,18 @@
       <c r="H34" s="17"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="24" t="s">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="B35" s="7">
         <v>3</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="13">
         <v>20</v>
@@ -1791,24 +1900,21 @@
         <v>50</v>
       </c>
       <c r="J35" s="1">
-        <v>5</v>
-      </c>
-      <c r="K35" s="1">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B36" s="7">
         <v>3</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="13">
         <v>20</v>
@@ -1826,21 +1932,21 @@
         <v>50</v>
       </c>
       <c r="J36" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="24" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="B37" s="7">
         <v>3</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E37" s="13">
         <v>20</v>
@@ -1858,21 +1964,21 @@
         <v>50</v>
       </c>
       <c r="J37" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="24" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B38" s="7">
         <v>3</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="13">
         <v>0</v>
@@ -1890,22 +1996,7 @@
         <v>50</v>
       </c>
       <c r="J38" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="10" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1917,6 +2008,1173 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDC3412F-C971-4178-BEFA-7CA3C9AD6C86}">
+  <dimension ref="A1:J38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="30.125" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.375" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.75" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.375" style="19" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="29.25" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="13">
+        <v>1</v>
+      </c>
+      <c r="F2" s="13">
+        <v>2</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="16">
+        <v>0</v>
+      </c>
+      <c r="I2" s="19">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="31"/>
+      <c r="B3" s="7">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2</v>
+      </c>
+      <c r="F3" s="13">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="16">
+        <v>100</v>
+      </c>
+      <c r="I3" s="19">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="31"/>
+      <c r="B4" s="7">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="13">
+        <v>3</v>
+      </c>
+      <c r="F4" s="13">
+        <v>6</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>200</v>
+      </c>
+      <c r="I4" s="19">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="31"/>
+      <c r="B5" s="7">
+        <v>3</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="13">
+        <v>4</v>
+      </c>
+      <c r="F5" s="13">
+        <v>8</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>500</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="13">
+        <v>6</v>
+      </c>
+      <c r="F7" s="13">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>100</v>
+      </c>
+      <c r="I7" s="19">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="7">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="13">
+        <v>9</v>
+      </c>
+      <c r="F8" s="13">
+        <v>15</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>200</v>
+      </c>
+      <c r="I8" s="19">
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="7">
+        <v>3</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="13">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13">
+        <v>20</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>500</v>
+      </c>
+      <c r="I9" s="19">
+        <v>3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="13">
+        <v>5</v>
+      </c>
+      <c r="F10" s="13">
+        <v>5</v>
+      </c>
+      <c r="G10" s="13">
+        <v>10</v>
+      </c>
+      <c r="H10" s="16">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>5</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="31"/>
+      <c r="B11" s="7">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="13">
+        <v>10</v>
+      </c>
+      <c r="F11" s="13">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13">
+        <v>10</v>
+      </c>
+      <c r="H11" s="16">
+        <v>100</v>
+      </c>
+      <c r="I11" s="19">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="31"/>
+      <c r="B12" s="7">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="13">
+        <v>15</v>
+      </c>
+      <c r="F12" s="13">
+        <v>15</v>
+      </c>
+      <c r="G12" s="13">
+        <v>10</v>
+      </c>
+      <c r="H12" s="16">
+        <v>200</v>
+      </c>
+      <c r="I12" s="19">
+        <v>5</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="7">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="13">
+        <v>20</v>
+      </c>
+      <c r="F13" s="13">
+        <v>20</v>
+      </c>
+      <c r="G13" s="13">
+        <v>10</v>
+      </c>
+      <c r="H13" s="16">
+        <v>500</v>
+      </c>
+      <c r="I13" s="19">
+        <v>5</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="7">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2</v>
+      </c>
+      <c r="F15" s="13">
+        <v>5</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>1000</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="7">
+        <v>3</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="13">
+        <v>3</v>
+      </c>
+      <c r="F16" s="13">
+        <v>6</v>
+      </c>
+      <c r="G16" s="13">
+        <v>5</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1000</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="7">
+        <v>3</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="13">
+        <v>4</v>
+      </c>
+      <c r="F17" s="13">
+        <v>8</v>
+      </c>
+      <c r="G17" s="13">
+        <v>5</v>
+      </c>
+      <c r="H17" s="16">
+        <v>1000</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>72</v>
+      </c>
+      <c r="B18" s="7">
+        <v>3</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H18" s="16">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="7">
+        <v>3</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H20" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="7">
+        <v>3</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="13">
+        <v>7</v>
+      </c>
+      <c r="F21" s="13">
+        <v>7</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="7">
+        <v>3</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="13">
+        <v>20</v>
+      </c>
+      <c r="F22" s="13">
+        <v>20</v>
+      </c>
+      <c r="G22" s="13">
+        <v>20</v>
+      </c>
+      <c r="H22" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="7">
+        <v>3</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="13">
+        <v>3</v>
+      </c>
+      <c r="F23" s="13">
+        <v>6</v>
+      </c>
+      <c r="G23" s="13">
+        <v>15</v>
+      </c>
+      <c r="H23" s="16">
+        <v>2000</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="20"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="7">
+        <v>3</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="13">
+        <v>10</v>
+      </c>
+      <c r="F25" s="13">
+        <v>20</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="16">
+        <v>3000</v>
+      </c>
+      <c r="I25" s="19">
+        <v>30</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="7">
+        <v>3</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="13">
+        <v>9</v>
+      </c>
+      <c r="F26" s="13">
+        <v>18</v>
+      </c>
+      <c r="G26" s="13">
+        <v>30</v>
+      </c>
+      <c r="H26" s="16">
+        <v>3000</v>
+      </c>
+      <c r="I26" s="19">
+        <v>30</v>
+      </c>
+      <c r="J26" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="7">
+        <v>3</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="13">
+        <v>8</v>
+      </c>
+      <c r="F27" s="13">
+        <v>16</v>
+      </c>
+      <c r="G27" s="13">
+        <v>40</v>
+      </c>
+      <c r="H27" s="16">
+        <v>3000</v>
+      </c>
+      <c r="I27" s="19">
+        <v>30</v>
+      </c>
+      <c r="J27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="7">
+        <v>3</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" s="16">
+        <v>3000</v>
+      </c>
+      <c r="I28" s="19">
+        <v>30</v>
+      </c>
+      <c r="J28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="7">
+        <v>3</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E30" s="13">
+        <v>10</v>
+      </c>
+      <c r="F30" s="13">
+        <v>10</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="16">
+        <v>5000</v>
+      </c>
+      <c r="I30" s="19">
+        <v>40</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="7">
+        <v>3</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" s="13">
+        <v>12</v>
+      </c>
+      <c r="F31" s="13">
+        <v>12</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H31" s="16">
+        <v>5000</v>
+      </c>
+      <c r="I31" s="19">
+        <v>40</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="7">
+        <v>3</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16">
+        <v>5000</v>
+      </c>
+      <c r="I32" s="19">
+        <v>40</v>
+      </c>
+      <c r="J32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="25" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="7">
+        <v>3</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16">
+        <v>5000</v>
+      </c>
+      <c r="I33" s="19">
+        <v>40</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="20"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="7">
+        <v>3</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="13">
+        <v>15</v>
+      </c>
+      <c r="F35" s="13">
+        <v>30</v>
+      </c>
+      <c r="G35" s="13">
+        <v>40</v>
+      </c>
+      <c r="H35" s="16">
+        <v>10000</v>
+      </c>
+      <c r="I35" s="19">
+        <v>50</v>
+      </c>
+      <c r="J35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="7">
+        <v>3</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="16">
+        <v>10000</v>
+      </c>
+      <c r="I36" s="19">
+        <v>50</v>
+      </c>
+      <c r="J36" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="7">
+        <v>3</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E37" s="32">
+        <v>0.08</v>
+      </c>
+      <c r="F37" s="32">
+        <v>0.12</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" s="16">
+        <v>10000</v>
+      </c>
+      <c r="I37" s="19">
+        <v>50</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="7">
+        <v>3</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>0</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H38" s="16">
+        <v>10000</v>
+      </c>
+      <c r="I38" s="19">
+        <v>50</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3754FD75-049F-40BD-8DF3-3E5B9D83DB94}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.375" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="28" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="26" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="29"/>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="25"/>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>